--- a/股票損益&房貸試算收入試算.xlsx
+++ b/股票損益&房貸試算收入試算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22391" windowHeight="10067" activeTab="2"/>
+    <workbookView windowWidth="22391" windowHeight="10067"/>
   </bookViews>
   <sheets>
     <sheet name="股票損益" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>(單位:萬元)</t>
   </si>
@@ -64,105 +64,105 @@
     <t>股利+借券</t>
   </si>
   <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>股市已實現</t>
+  </si>
+  <si>
+    <t>資產總值</t>
+  </si>
+  <si>
+    <t>信貸</t>
+  </si>
+  <si>
+    <t>質借一次</t>
+  </si>
+  <si>
+    <t>假設報酬</t>
+  </si>
+  <si>
+    <t>每年收入</t>
+  </si>
+  <si>
+    <t>每年利息</t>
+  </si>
+  <si>
+    <t>每年利息支出</t>
+  </si>
+  <si>
+    <t>淨收入</t>
+  </si>
+  <si>
+    <t>股市未實現</t>
+  </si>
+  <si>
+    <t>扣除去年底未實現</t>
+  </si>
+  <si>
+    <t>每月</t>
+  </si>
+  <si>
+    <t>質借兩次</t>
+  </si>
+  <si>
+    <t>未實</t>
+  </si>
+  <si>
+    <t>已實</t>
+  </si>
+  <si>
+    <t>借出的股票</t>
+  </si>
+  <si>
+    <t>共賺</t>
+  </si>
+  <si>
+    <t>張數</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>現價</t>
+  </si>
+  <si>
+    <t>出借收入</t>
+  </si>
+  <si>
+    <t>扣掉去年未實(這才是真正的YTD)</t>
+  </si>
+  <si>
+    <t>正二</t>
+  </si>
+  <si>
     <t>皇鼎</t>
   </si>
   <si>
-    <t>台積電</t>
-  </si>
-  <si>
-    <t>股市已實現</t>
-  </si>
-  <si>
-    <t>資產總值</t>
-  </si>
-  <si>
-    <t>信貸</t>
-  </si>
-  <si>
-    <t>質借一次</t>
-  </si>
-  <si>
-    <t>假設報酬</t>
-  </si>
-  <si>
-    <t>每年收入</t>
-  </si>
-  <si>
-    <t>每年利息</t>
-  </si>
-  <si>
-    <t>每年利息支出</t>
-  </si>
-  <si>
-    <t>淨收入</t>
-  </si>
-  <si>
     <t>費半</t>
   </si>
   <si>
     <t>國泰費城半導體</t>
   </si>
   <si>
-    <t>股市未實現</t>
-  </si>
-  <si>
     <t>中信0-1年美債</t>
   </si>
   <si>
     <t>八貫(借券)</t>
   </si>
   <si>
-    <t>扣除去年底未實現</t>
-  </si>
-  <si>
-    <t>每月</t>
-  </si>
-  <si>
     <t>八貫</t>
   </si>
   <si>
     <t>費半(借券)</t>
   </si>
   <si>
-    <t>質借兩次</t>
-  </si>
-  <si>
     <t>NASDAQ</t>
   </si>
   <si>
     <t>千附精密</t>
   </si>
   <si>
-    <t>借出的股票</t>
-  </si>
-  <si>
-    <t>張數</t>
-  </si>
-  <si>
-    <t>成本</t>
-  </si>
-  <si>
-    <t>現價</t>
-  </si>
-  <si>
-    <t>出借收入</t>
-  </si>
-  <si>
-    <t>未實</t>
-  </si>
-  <si>
-    <t>正二</t>
-  </si>
-  <si>
-    <t>已實</t>
-  </si>
-  <si>
-    <t>共賺</t>
-  </si>
-  <si>
-    <t>扣掉去年未實(這才是真正的YTD)</t>
-  </si>
-  <si>
     <t>八貫目標2025年時到210有機會的話下半年就有可能</t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t>永豐餘</t>
   </si>
   <si>
-    <t>(股票14.7+股利10.3)</t>
+    <t>(股票14.7萬+股利10.3萬)</t>
   </si>
   <si>
     <t>亞果遊艇</t>
@@ -361,10 +361,10 @@
     <t>扣除爸媽的錢</t>
   </si>
   <si>
-    <t>補加上房貸已繳的錢(要扣訂金10萬是媽媽刷卡出的)</t>
-  </si>
-  <si>
-    <t>第九期工程款</t>
+    <t>補加上房貸已繳的錢</t>
+  </si>
+  <si>
+    <t>第十期工程款</t>
   </si>
   <si>
     <t>LINE</t>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>股票尚未交割金額</t>
+  </si>
+  <si>
+    <t>台積電1/8</t>
   </si>
   <si>
     <t>借出去的股票市值</t>
@@ -396,19 +399,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="183" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -440,14 +443,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,9 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -524,9 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,15 +555,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,19 +570,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -598,37 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,31 +619,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,31 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,25 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +721,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +851,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -849,17 +869,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,6 +888,15 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,26 +925,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,26 +975,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,7 +997,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,13 +1006,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,13 +1021,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,22 +1042,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1057,117 +1066,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1176,7 +1188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1185,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,73 +1206,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -1588,8 +1603,8 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.1111111111111"/>
     <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.4444444444444" style="2"/>
-    <col min="5" max="5" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="12.2222222222222" style="2"/>
+    <col min="5" max="5" width="10.4444444444444" style="2"/>
     <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="11.5555555555556"/>
     <col min="9" max="9" width="13.1111111111111" customWidth="1"/>
@@ -1605,114 +1620,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15">
-        <f>(D41+D61+D77+D99+D109)*10000+M8</f>
-        <v>7618365</v>
-      </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="3" ht="16.95" spans="15:15">
+      <c r="A1" s="16">
+        <f>D28+D46+D66+D82+D104+D114</f>
+        <v>8104733</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="16">
+        <f>A1+M8</f>
+        <v>9841349</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="O2" s="2">
+        <f>O6*R6</f>
+        <v>600000</v>
+      </c>
+      <c r="P2" s="2">
+        <f>O2/12</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" ht="16.95" spans="3:16">
+      <c r="C3" s="16"/>
       <c r="O3" s="2">
-        <f>(O6+P6)*0.07-P6*T6</f>
-        <v>920000</v>
+        <f>(O6+P6)*R6-P6*T6</f>
+        <v>640000</v>
+      </c>
+      <c r="P3" s="2">
+        <f>O3/12</f>
+        <v>53333.3333333333</v>
       </c>
     </row>
     <row r="4" ht="16.95" spans="2:10">
-      <c r="B4" s="16">
-        <v>2025</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="17">
+        <v>2026</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="35">
-        <f>SUM(I$5:I$27)</f>
-        <v>490723</v>
-      </c>
-      <c r="J4" s="34"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="34">
+        <f>SUM($I5:$I14)</f>
+        <v>48000</v>
+      </c>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="20"/>
-      <c r="C5" t="s">
+      <c r="B5" s="21"/>
+      <c r="G5" s="22">
+        <v>45665</v>
+      </c>
+      <c r="H5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21">
-        <v>-13.93</v>
-      </c>
-      <c r="G5" s="22">
-        <v>45666</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
       <c r="I5" s="2">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="J5" s="36"/>
       <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48000</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="2">
-        <v>-544971</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="20"/>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="21">
-        <v>-21.01</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45706</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2">
-        <v>201960</v>
-      </c>
+      <c r="B6" s="21"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="36"/>
       <c r="L6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" s="2">
-        <v>4182186</v>
+        <v>6096876</v>
       </c>
       <c r="N6" s="2">
         <f>M6+Q12+Q13+Q14</f>
-        <v>4753636</v>
+        <v>6928626</v>
       </c>
       <c r="O6" s="2">
         <v>12000000</v>
@@ -1744,28 +1760,16 @@
       </c>
     </row>
     <row r="7" ht="16.95" spans="2:23">
-      <c r="B7" s="20"/>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="21">
-        <v>-9.13</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45723</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2">
-        <v>17325</v>
-      </c>
+      <c r="B7" s="21"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="36"/>
-      <c r="L7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="7">
-        <v>231000</v>
+      <c r="L7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5240010</v>
       </c>
       <c r="R7" s="38"/>
       <c r="S7" s="2">
@@ -1782,56 +1786,33 @@
         <v>67333.3333333333</v>
       </c>
       <c r="W7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="20"/>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21">
-        <v>-61.03</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45733</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2">
-        <v>360</v>
-      </c>
+      <c r="B8" s="21"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="36"/>
       <c r="L8"/>
       <c r="M8" s="2">
         <f>M5+N6-M7</f>
-        <v>3977665</v>
+        <v>1736616</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21">
-        <v>18.09</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45737</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2078</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="36"/>
       <c r="Q9" s="2">
         <f>(O6+P6)*1.96</f>
@@ -1852,25 +1833,15 @@
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="21">
-        <v>-16.56</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45757</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>20250</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="36"/>
       <c r="L10" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S10" s="2">
         <f>S9/12</f>
@@ -1887,337 +1858,407 @@
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="G11" s="3">
-        <v>45763</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2">
-        <v>175500</v>
-      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <f>D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="36"/>
       <c r="M11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="G12" s="3">
-        <v>45848</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>20250</v>
-      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <f>D11-D28</f>
+        <v>-4464033</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="36"/>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>239.17</v>
       </c>
-      <c r="O12" s="8">
-        <v>352.5</v>
+      <c r="O12" s="9">
+        <v>404.3</v>
       </c>
       <c r="P12" s="2">
-        <v>4800</v>
+        <v>6100</v>
       </c>
       <c r="Q12" s="2">
         <f>(O12-N12)*M12*1000+P12</f>
-        <v>571450</v>
+        <v>831750</v>
       </c>
       <c r="R12" s="2">
         <f>O12*5*1000</f>
-        <v>1762500</v>
+        <v>2021500</v>
       </c>
       <c r="S12" s="39">
         <f>(P12+Q12)/(N12*M12*1000)</f>
-        <v>0.48187481707572</v>
+        <v>0.700631350085713</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="G13" s="3">
-        <v>45939</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>41000</v>
-      </c>
+      <c r="B13" s="21"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="36"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="5">
-        <v>13878079</v>
+      <c r="R13" s="27">
+        <v>15961070</v>
       </c>
       <c r="S13"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="36"/>
+    <row r="14" ht="16.95" spans="2:22">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="37"/>
       <c r="Q14"/>
       <c r="R14" s="2">
         <f>SUM(R11:R13)</f>
-        <v>15640579</v>
+        <v>17982570</v>
       </c>
       <c r="S14"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="36"/>
+    <row r="15" spans="3:22">
+      <c r="C15" s="16"/>
       <c r="Q15"/>
       <c r="S15"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="36"/>
+    <row r="16" ht="16.95" spans="3:3">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" ht="16.95" spans="2:10">
+      <c r="B17" s="17">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="34">
+        <f>SUM($I18:$I32)</f>
+        <v>490723</v>
+      </c>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-139300</v>
+      </c>
+      <c r="G18" s="22">
+        <v>45666</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="21"/>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-210100</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45706</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2">
+        <v>201960</v>
+      </c>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="21"/>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-91300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45723</v>
+      </c>
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="20"/>
-      <c r="C19" t="s">
+      <c r="I20" s="2">
+        <v>17325</v>
+      </c>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="21"/>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-610300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45733</v>
+      </c>
+      <c r="H21" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="20"/>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="21">
-        <f>D18+D19</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="20"/>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="21">
-        <f>D20-D38</f>
-        <v>-23.1</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>360</v>
+      </c>
       <c r="J21" s="36"/>
       <c r="N21" s="3"/>
       <c r="O21"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="20"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="21"/>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2">
+        <v>180900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45737</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2078</v>
+      </c>
       <c r="J22" s="36"/>
       <c r="N22" s="3"/>
       <c r="O22"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="I23" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-165600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45757</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20250</v>
+      </c>
       <c r="J23" s="36"/>
       <c r="N23" s="3"/>
       <c r="O23"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="23"/>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="I24" s="2"/>
+      <c r="B24" s="21"/>
+      <c r="D24" s="26"/>
+      <c r="G24" s="3">
+        <v>45763</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="2">
+        <v>175500</v>
+      </c>
       <c r="J24" s="36"/>
       <c r="N24" s="3"/>
       <c r="O24"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="23"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="2"/>
+      <c r="B25" s="21"/>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5240010</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45848</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20250</v>
+      </c>
       <c r="J25" s="36"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="I26" s="2"/>
+      <c r="B26" s="21"/>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-544977</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45939</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>41000</v>
+      </c>
       <c r="J26" s="36"/>
-      <c r="O26" s="8"/>
+      <c r="O26" s="9"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" ht="16.95" spans="2:29">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="37"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="21"/>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D25+D26</f>
+        <v>4695033</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="36"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="26:29">
+    <row r="28" spans="2:29">
+      <c r="B28" s="21"/>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="27">
+        <f>D27-D43</f>
+        <v>4464033</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="36"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" ht="16.95" spans="26:29">
+    <row r="29" spans="2:29">
+      <c r="B29" s="21"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="36"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" ht="16.95" spans="2:29">
-      <c r="B30" s="16">
-        <v>2024</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="35">
-        <f>SUM(I$31:I$47)</f>
-        <v>307025</v>
-      </c>
-      <c r="J30" s="34"/>
+    <row r="30" spans="2:29">
+      <c r="B30" s="21"/>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="36"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="21">
-        <v>-1.9</v>
-      </c>
-      <c r="G31" s="3">
-        <v>45303</v>
-      </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="2">
-        <v>6210</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="36"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="2:29">
-      <c r="B32" s="20"/>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="21">
-        <v>65.7</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45343</v>
-      </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="2">
-        <v>12080</v>
-      </c>
-      <c r="J32" s="36"/>
+    <row r="32" ht="16.95" spans="2:29">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="37"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -2226,24 +2267,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="20"/>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="21">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45376</v>
-      </c>
-      <c r="H33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="2">
-        <v>3900</v>
-      </c>
-      <c r="J33" s="36"/>
+    <row r="33" spans="23:29">
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -2252,24 +2276,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="2:29">
-      <c r="B34" s="20"/>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="21">
-        <v>66.3</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45393</v>
-      </c>
-      <c r="H34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="2">
-        <v>7000</v>
-      </c>
-      <c r="J34" s="36"/>
+    <row r="34" ht="16.95" spans="23:29">
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -2278,24 +2285,25 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="20"/>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="21">
-        <v>3.86</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45400</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="2">
-        <v>155000</v>
-      </c>
-      <c r="J35" s="36"/>
+    <row r="35" ht="16.95" spans="2:29">
+      <c r="B35" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="34">
+        <f>SUM(I$36:I$52)</f>
+        <v>307025</v>
+      </c>
+      <c r="J35" s="35"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -2305,22 +2313,21 @@
       <c r="AC35" s="2"/>
     </row>
     <row r="36" spans="2:29">
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="21">
-        <v>-7.4</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-19000</v>
+      </c>
       <c r="G36" s="3">
-        <v>45470</v>
+        <v>45303</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2">
-        <v>3879</v>
+        <v>6210</v>
       </c>
       <c r="J36" s="36"/>
       <c r="W36" s="2"/>
@@ -2332,16 +2339,21 @@
       <c r="AC36" s="2"/>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2">
+        <v>657000</v>
+      </c>
       <c r="G37" s="3">
-        <v>45484</v>
+        <v>45343</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I37" s="2">
-        <v>7000</v>
+        <v>12080</v>
       </c>
       <c r="J37" s="36"/>
       <c r="T37" s="2"/>
@@ -2356,21 +2368,21 @@
       <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="2:29">
-      <c r="B38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="21">
-        <v>23.1</v>
+        <v>38</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-10000</v>
       </c>
       <c r="G38" s="3">
-        <v>45489</v>
+        <v>45376</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I38" s="2">
-        <v>13902</v>
+        <v>3900</v>
       </c>
       <c r="J38" s="36"/>
       <c r="T38" s="2"/>
@@ -2385,21 +2397,21 @@
       <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="B39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="21">
-        <v>156.26</v>
+        <v>40</v>
+      </c>
+      <c r="D39" s="2">
+        <v>663000</v>
       </c>
       <c r="G39" s="3">
-        <v>45506</v>
+        <v>45393</v>
       </c>
       <c r="H39" t="s">
         <v>2</v>
       </c>
       <c r="I39" s="2">
-        <v>81600</v>
+        <v>7000</v>
       </c>
       <c r="J39" s="36"/>
       <c r="T39" s="2"/>
@@ -2414,22 +2426,21 @@
       <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="2:29">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="21">
-        <f>D38+D39</f>
-        <v>179.36</v>
+        <v>27</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38600</v>
       </c>
       <c r="G40" s="3">
-        <v>45513</v>
+        <v>45400</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I40" s="2">
-        <v>783</v>
+        <v>155000</v>
       </c>
       <c r="J40" s="36"/>
       <c r="T40" s="2"/>
@@ -2444,22 +2455,22 @@
       <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="2:29">
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="21">
-        <f>D40-D58</f>
-        <v>145.56</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-74000</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="G41" s="3">
-        <v>45523</v>
+        <v>45470</v>
       </c>
       <c r="H41" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="2">
-        <v>1161</v>
+        <v>3879</v>
       </c>
       <c r="J41" s="36"/>
       <c r="T41" s="2"/>
@@ -2474,15 +2485,18 @@
       <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
       <c r="G42" s="3">
-        <v>45525</v>
+        <v>45484</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I42" s="2">
-        <v>1237</v>
+        <v>7000</v>
       </c>
       <c r="J42" s="36"/>
       <c r="T42" s="2"/>
@@ -2497,18 +2511,21 @@
       <c r="AC42" s="2"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="B43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="D43" s="2">
+        <v>231000</v>
       </c>
       <c r="G43" s="3">
-        <v>45574</v>
+        <v>45489</v>
       </c>
       <c r="H43" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I43" s="2">
-        <v>12000</v>
+        <v>13902</v>
       </c>
       <c r="J43" s="36"/>
       <c r="T43" s="2"/>
@@ -2523,18 +2540,21 @@
       <c r="AC43" s="2"/>
     </row>
     <row r="44" spans="2:29">
-      <c r="B44" s="23"/>
+      <c r="B44" s="21"/>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1562600</v>
       </c>
       <c r="G44" s="3">
-        <v>45643</v>
+        <v>45506</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I44" s="2">
-        <v>1273</v>
+        <v>81600</v>
       </c>
       <c r="J44" s="36"/>
       <c r="T44" s="2"/>
@@ -2548,1075 +2568,1086 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="2:29">
-      <c r="B45" s="23"/>
+    <row r="45" spans="2:10">
+      <c r="B45" s="21"/>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D43+D44</f>
+        <v>1793600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>45513</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="2">
+        <v>783</v>
+      </c>
       <c r="J45" s="36"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-    </row>
-    <row r="46" spans="2:29">
-      <c r="B46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="I46" s="2"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="21"/>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="27">
+        <f>D45-D63</f>
+        <v>1455600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45523</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1161</v>
+      </c>
       <c r="J46" s="36"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-    </row>
-    <row r="47" ht="16.95" spans="2:29">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="37"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-    </row>
-    <row r="48" spans="2:29">
-      <c r="B48" s="3"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-    </row>
-    <row r="49" ht="16.95" spans="2:29">
-      <c r="B49" s="3"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-    </row>
-    <row r="50" ht="16.95" spans="2:10">
-      <c r="B50" s="16">
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="21"/>
+      <c r="G47" s="3">
+        <v>45525</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1237</v>
+      </c>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="21"/>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45574</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>12000</v>
+      </c>
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="28"/>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45643</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1273</v>
+      </c>
+      <c r="J49" s="36"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="28"/>
+      <c r="J50" s="36"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="36"/>
+    </row>
+    <row r="52" ht="16.95" spans="2:10">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" ht="16.95" spans="2:2">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" ht="16.95" spans="2:10">
+      <c r="B55" s="17">
         <v>2023</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C55" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="19" t="s">
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="35">
-        <f>SUM(I51:I57)</f>
+      <c r="H55" s="18"/>
+      <c r="I55" s="34">
+        <f>SUM(I56:I62)</f>
         <v>103800</v>
       </c>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="20"/>
-      <c r="C51" s="28" t="s">
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="21"/>
+      <c r="C56" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="29">
-        <v>34.61</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="31">
+      <c r="D56" s="31">
+        <v>346100</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="33">
         <v>45135</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H56" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I56" s="32">
         <v>4750</v>
       </c>
-      <c r="J51" s="36"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="20"/>
-      <c r="C52" s="28" t="s">
+      <c r="J56" s="36"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="21"/>
+      <c r="C57" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="29">
-        <v>3.31</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="31">
+      <c r="D57" s="31">
+        <v>33100</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="33">
         <v>45149</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="H57" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I57" s="32">
         <v>2300</v>
       </c>
-      <c r="J52" s="36"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="20"/>
-      <c r="C53" s="28" t="s">
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="21"/>
+      <c r="C58" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="29">
-        <v>-1.49</v>
-      </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="31">
+      <c r="D58" s="31">
+        <v>-14900</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="33">
         <v>45149</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H58" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I58" s="32">
         <v>54266</v>
       </c>
-      <c r="J53" s="36"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="20"/>
-      <c r="C54" s="28" t="s">
+      <c r="J58" s="36"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="21"/>
+      <c r="C59" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="29">
-        <v>-17.19</v>
-      </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="31">
+      <c r="D59" s="31">
+        <v>-171900</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="33">
         <v>45244</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H59" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I59" s="32">
         <v>4790</v>
       </c>
-      <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="20"/>
-      <c r="C55" s="28" t="s">
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="21"/>
+      <c r="C60" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="29">
-        <v>-6.86</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="31">
+      <c r="D60" s="31">
+        <v>-68600</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="33">
         <v>45244</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H60" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I60" s="32">
         <v>635</v>
       </c>
-      <c r="J55" s="36"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="20"/>
-      <c r="C56" s="28" t="s">
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="21"/>
+      <c r="C61" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="31">
+      <c r="D61" s="31">
+        <v>18500</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="33">
         <v>45272</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H61" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I61" s="32">
         <v>34599</v>
       </c>
-      <c r="J56" s="36"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="20"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="31">
+      <c r="J61" s="36"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="21"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="33">
         <v>45272</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H62" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I62" s="32">
         <v>2460</v>
       </c>
-      <c r="J57" s="36"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="20"/>
-      <c r="C58" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="29">
-        <v>33.8</v>
-      </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="36"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="20"/>
-      <c r="C59" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="29">
-        <v>25</v>
-      </c>
-      <c r="E59" s="30" t="s">
+      <c r="J62" s="36"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="21"/>
+      <c r="C63" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="31">
+        <v>338000</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="36"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="21"/>
+      <c r="C64" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="31">
+        <v>250000</v>
+      </c>
+      <c r="E64" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="36"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="20"/>
-      <c r="C60" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="29">
-        <f>D58+D59</f>
-        <v>58.8</v>
-      </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="36"/>
-    </row>
-    <row r="61" ht="16.95" spans="2:10">
-      <c r="B61" s="32"/>
-      <c r="C61" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="33">
-        <f>D60-D74</f>
-        <v>44.73</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="37"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="63" ht="16.95" spans="2:10">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="30"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="16">
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="36"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="21"/>
+      <c r="C65" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="32">
+        <f>D63+D64</f>
+        <v>588000</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="36"/>
+    </row>
+    <row r="66" ht="16.95" spans="2:10">
+      <c r="B66" s="40"/>
+      <c r="C66" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="41">
+        <f>D65-D79</f>
+        <v>447300</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="37"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" ht="16.95" spans="2:10">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="17">
         <v>2022</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="20"/>
-      <c r="C65" s="28" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="21"/>
+      <c r="C70" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="40">
-        <v>89.05</v>
-      </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="20"/>
-      <c r="C66" s="28" t="s">
+      <c r="D70" s="36">
+        <v>890500</v>
+      </c>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="21"/>
+      <c r="C71" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="40">
-        <v>-0.96</v>
-      </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="20"/>
-      <c r="C67" s="28" t="s">
+      <c r="D71" s="36">
+        <v>-9600</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="32"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="21"/>
+      <c r="C72" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="40">
-        <v>-3.88</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="20"/>
-      <c r="C68" s="28" t="s">
+      <c r="D72" s="36">
+        <v>-38800</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="21"/>
+      <c r="C73" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="40">
-        <v>13.78</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="20"/>
-      <c r="C69" s="28" t="s">
+      <c r="D73" s="36">
+        <v>137800</v>
+      </c>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="32"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="21"/>
+      <c r="C74" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="40">
-        <v>-4.93</v>
-      </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="30"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="20"/>
-      <c r="C70" s="28" t="s">
+      <c r="D74" s="36">
+        <v>-49300</v>
+      </c>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="21"/>
+      <c r="C75" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="40">
-        <v>1.56</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="20"/>
-      <c r="C71" s="28" t="s">
+      <c r="D75" s="36">
+        <v>15600</v>
+      </c>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="21"/>
+      <c r="C76" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="40">
-        <v>-1.96</v>
-      </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="20"/>
-      <c r="C72" s="28" t="s">
+      <c r="D76" s="36">
+        <v>-19600</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="21"/>
+      <c r="C77" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="40">
-        <v>5.86</v>
-      </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="20"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="30"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="20"/>
-      <c r="C74" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="40">
-        <v>14.07</v>
-      </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="30"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="20"/>
-      <c r="C75" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="40">
-        <v>98.52</v>
-      </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="30"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="20"/>
-      <c r="C76" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="40">
-        <f>D74+D75</f>
-        <v>112.59</v>
-      </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="30"/>
-    </row>
-    <row r="77" ht="16.95" spans="2:10">
-      <c r="B77" s="32"/>
-      <c r="C77" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="41">
-        <f>D76-D96</f>
-        <v>41.33</v>
-      </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="30"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" ht="16.95" spans="4:4">
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="16">
+      <c r="D77" s="36">
+        <v>58600</v>
+      </c>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="32"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="21"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="36"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="21"/>
+      <c r="C79" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="36">
+        <v>140700</v>
+      </c>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="21"/>
+      <c r="C80" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="36">
+        <v>985200</v>
+      </c>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="32"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="21"/>
+      <c r="C81" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="36">
+        <f>D79+D80</f>
+        <v>1125900</v>
+      </c>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="32"/>
+    </row>
+    <row r="82" ht="16.95" spans="2:10">
+      <c r="B82" s="40"/>
+      <c r="C82" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="43">
+        <f>D81-D101</f>
+        <v>413300</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="32"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="26"/>
+    </row>
+    <row r="84" ht="16.95" spans="4:4">
+      <c r="D84" s="26"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="17">
         <v>2021</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="42"/>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="20"/>
-      <c r="C81" t="s">
+      <c r="C85" s="18"/>
+      <c r="D85" s="44"/>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="21"/>
+      <c r="C86" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="40">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="20"/>
-      <c r="C82" t="s">
+      <c r="D86" s="36">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="21"/>
+      <c r="C87" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="40">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="20"/>
-      <c r="C83" t="s">
+      <c r="D87" s="36">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="21"/>
+      <c r="C88" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="40">
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="20"/>
-      <c r="C84" t="s">
+      <c r="D88" s="36">
+        <v>108700</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="21"/>
+      <c r="C89" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="40">
-        <v>-1.48</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="20"/>
-      <c r="C85" t="s">
+      <c r="D89" s="36">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="21"/>
+      <c r="C90" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="40">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="20"/>
-      <c r="C86" t="s">
+      <c r="D90" s="36">
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="21"/>
+      <c r="C91" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="40">
-        <v>-0.89</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="20"/>
-      <c r="C87" t="s">
+      <c r="D91" s="36">
+        <v>-8900</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="21"/>
+      <c r="C92" t="s">
         <v>62</v>
       </c>
-      <c r="D87" s="40">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="20"/>
-      <c r="C88" t="s">
+      <c r="D92" s="36">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="21"/>
+      <c r="C93" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="40">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="20"/>
-      <c r="C89" t="s">
+      <c r="D93" s="36">
+        <v>56100</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="21"/>
+      <c r="C94" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="40">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="20"/>
-      <c r="C90" t="s">
+      <c r="D94" s="36">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="21"/>
+      <c r="C95" t="s">
         <v>64</v>
       </c>
-      <c r="D90" s="40">
-        <v>-1.27</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="20"/>
-      <c r="C91" t="s">
+      <c r="D95" s="36">
+        <v>-12700</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="21"/>
+      <c r="C96" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="40">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="20"/>
-      <c r="C92" t="s">
+      <c r="D96" s="36">
+        <v>77700</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="21"/>
+      <c r="C97" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="40">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="20"/>
-      <c r="C93" t="s">
+      <c r="D97" s="36">
+        <v>-13200</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="21"/>
+      <c r="C98" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="40">
-        <v>-1.05</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="20"/>
-      <c r="C94" t="s">
+      <c r="D98" s="36">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="21"/>
+      <c r="C99" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="40">
-        <v>24.49</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="20"/>
-      <c r="D95" s="40"/>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="20"/>
-      <c r="C96" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="40">
-        <v>71.26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="20"/>
-      <c r="C97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="40">
-        <v>50.42</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="20"/>
-      <c r="C98" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="40">
-        <f>D96+D97</f>
-        <v>121.68</v>
-      </c>
-    </row>
-    <row r="99" ht="16.95" spans="2:4">
-      <c r="B99" s="32"/>
-      <c r="C99" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="41">
-        <f>D98-D107</f>
-        <v>115.31</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="21"/>
-    </row>
-    <row r="101" ht="16.95" spans="4:4">
-      <c r="D101" s="21"/>
+      <c r="D99" s="36">
+        <v>244900</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="21"/>
+      <c r="D100" s="36"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="21"/>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="36">
+        <v>712600</v>
+      </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="16">
+      <c r="B102" s="21"/>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="36">
+        <v>504200</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="21"/>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="36">
+        <f>D101+D102</f>
+        <v>1216800</v>
+      </c>
+    </row>
+    <row r="104" ht="16.95" spans="2:4">
+      <c r="B104" s="40"/>
+      <c r="C104" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="43">
+        <f>D103-D112</f>
+        <v>1153100</v>
+      </c>
+    </row>
+    <row r="106" ht="16.95"/>
+    <row r="107" spans="2:4">
+      <c r="B107" s="17">
         <v>2020</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="42"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="20"/>
-      <c r="C103" t="s">
+      <c r="C107" s="18"/>
+      <c r="D107" s="35"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="21"/>
+      <c r="C108" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="40">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="20"/>
-      <c r="C104" t="s">
+      <c r="D108" s="36">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="21"/>
+      <c r="C109" t="s">
         <v>57</v>
       </c>
-      <c r="D104" s="40">
-        <v>6.43</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="20"/>
-      <c r="C105" t="s">
+      <c r="D109" s="36">
+        <v>64300</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="21"/>
+      <c r="C110" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="40">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="20"/>
-      <c r="D106" s="40"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="20"/>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" s="40">
-        <v>6.37</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="20"/>
-      <c r="C108" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="40">
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="109" ht="16.95" spans="2:4">
-      <c r="B109" s="32"/>
-      <c r="C109" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="41">
-        <f>D107+D108</f>
-        <v>17.14</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="21"/>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="21"/>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="21"/>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="21"/>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="21"/>
+      <c r="D110" s="36">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="21"/>
+      <c r="D111" s="36"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="21"/>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="36">
+        <v>63700</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="21"/>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="36">
+        <v>107700</v>
+      </c>
+    </row>
+    <row r="114" ht="16.95" spans="2:4">
+      <c r="B114" s="40"/>
+      <c r="C114" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="43">
+        <f>D112+D113</f>
+        <v>171400</v>
+      </c>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="21"/>
+      <c r="D115" s="26"/>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="21"/>
+      <c r="D116" s="26"/>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="21"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="21"/>
+      <c r="D118" s="26"/>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="21"/>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="21"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="4:4">
-      <c r="D121" s="21"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="21"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="21"/>
+      <c r="D123" s="26"/>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="21"/>
+      <c r="D124" s="26"/>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="21"/>
+      <c r="D125" s="26"/>
     </row>
     <row r="126" spans="4:4">
-      <c r="D126" s="21"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="21"/>
+      <c r="D127" s="26"/>
     </row>
     <row r="128" spans="4:4">
-      <c r="D128" s="21"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="4:4">
-      <c r="D129" s="21"/>
+      <c r="D129" s="26"/>
     </row>
     <row r="130" spans="4:4">
-      <c r="D130" s="21"/>
+      <c r="D130" s="26"/>
     </row>
     <row r="131" spans="4:4">
-      <c r="D131" s="21"/>
+      <c r="D131" s="26"/>
     </row>
     <row r="132" spans="4:4">
-      <c r="D132" s="21"/>
+      <c r="D132" s="26"/>
     </row>
     <row r="133" spans="4:4">
-      <c r="D133" s="21"/>
+      <c r="D133" s="26"/>
     </row>
     <row r="134" spans="4:4">
-      <c r="D134" s="21"/>
+      <c r="D134" s="26"/>
     </row>
     <row r="135" spans="4:4">
-      <c r="D135" s="21"/>
+      <c r="D135" s="26"/>
     </row>
     <row r="136" spans="4:4">
-      <c r="D136" s="21"/>
+      <c r="D136" s="26"/>
     </row>
     <row r="137" spans="4:4">
-      <c r="D137" s="21"/>
+      <c r="D137" s="26"/>
     </row>
     <row r="138" spans="4:4">
-      <c r="D138" s="21"/>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="4:4">
-      <c r="D139" s="21"/>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="4:4">
-      <c r="D140" s="21"/>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="4:4">
-      <c r="D141" s="21"/>
+      <c r="D141" s="26"/>
     </row>
     <row r="142" spans="4:4">
-      <c r="D142" s="21"/>
+      <c r="D142" s="26"/>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="21"/>
+      <c r="D143" s="26"/>
     </row>
     <row r="144" spans="4:4">
-      <c r="D144" s="21"/>
+      <c r="D144" s="26"/>
     </row>
     <row r="145" spans="4:4">
-      <c r="D145" s="21"/>
+      <c r="D145" s="26"/>
     </row>
     <row r="146" spans="4:4">
-      <c r="D146" s="21"/>
+      <c r="D146" s="26"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="21"/>
+      <c r="D147" s="26"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="21"/>
+      <c r="D148" s="26"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="21"/>
+      <c r="D149" s="26"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="21"/>
+      <c r="D150" s="26"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="21"/>
+      <c r="D151" s="26"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="21"/>
+      <c r="D152" s="26"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="21"/>
+      <c r="D153" s="26"/>
     </row>
     <row r="154" spans="4:4">
-      <c r="D154" s="21"/>
+      <c r="D154" s="26"/>
     </row>
     <row r="155" spans="4:4">
-      <c r="D155" s="21"/>
+      <c r="D155" s="26"/>
     </row>
     <row r="156" spans="4:4">
-      <c r="D156" s="21"/>
+      <c r="D156" s="26"/>
     </row>
     <row r="157" spans="4:4">
-      <c r="D157" s="21"/>
+      <c r="D157" s="26"/>
     </row>
     <row r="158" spans="4:4">
-      <c r="D158" s="21"/>
+      <c r="D158" s="26"/>
     </row>
     <row r="159" spans="4:4">
-      <c r="D159" s="21"/>
+      <c r="D159" s="26"/>
     </row>
     <row r="160" spans="4:4">
-      <c r="D160" s="21"/>
+      <c r="D160" s="26"/>
     </row>
     <row r="161" spans="4:4">
-      <c r="D161" s="21"/>
+      <c r="D161" s="26"/>
     </row>
     <row r="162" spans="4:4">
-      <c r="D162" s="21"/>
+      <c r="D162" s="26"/>
     </row>
     <row r="163" spans="4:4">
-      <c r="D163" s="21"/>
+      <c r="D163" s="26"/>
     </row>
     <row r="164" spans="4:4">
-      <c r="D164" s="21"/>
+      <c r="D164" s="26"/>
     </row>
     <row r="165" spans="4:4">
-      <c r="D165" s="21"/>
+      <c r="D165" s="26"/>
     </row>
     <row r="166" spans="4:4">
-      <c r="D166" s="21"/>
+      <c r="D166" s="26"/>
     </row>
     <row r="167" spans="4:4">
-      <c r="D167" s="21"/>
+      <c r="D167" s="26"/>
     </row>
     <row r="168" spans="4:4">
-      <c r="D168" s="21"/>
+      <c r="D168" s="26"/>
     </row>
     <row r="169" spans="4:4">
-      <c r="D169" s="21"/>
+      <c r="D169" s="26"/>
     </row>
     <row r="170" spans="4:4">
-      <c r="D170" s="21"/>
+      <c r="D170" s="26"/>
     </row>
     <row r="171" spans="4:4">
-      <c r="D171" s="21"/>
+      <c r="D171" s="26"/>
     </row>
     <row r="172" spans="4:4">
-      <c r="D172" s="21"/>
+      <c r="D172" s="26"/>
     </row>
     <row r="173" spans="4:4">
-      <c r="D173" s="21"/>
+      <c r="D173" s="26"/>
     </row>
     <row r="174" spans="4:4">
-      <c r="D174" s="21"/>
+      <c r="D174" s="26"/>
     </row>
     <row r="175" spans="4:4">
-      <c r="D175" s="21"/>
+      <c r="D175" s="26"/>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="21"/>
+      <c r="D176" s="26"/>
     </row>
     <row r="177" spans="4:4">
-      <c r="D177" s="21"/>
+      <c r="D177" s="26"/>
     </row>
     <row r="178" spans="4:4">
-      <c r="D178" s="21"/>
+      <c r="D178" s="26"/>
     </row>
     <row r="179" spans="4:4">
-      <c r="D179" s="21"/>
+      <c r="D179" s="26"/>
     </row>
     <row r="180" spans="4:4">
-      <c r="D180" s="21"/>
+      <c r="D180" s="26"/>
     </row>
     <row r="181" spans="4:4">
-      <c r="D181" s="21"/>
+      <c r="D181" s="26"/>
     </row>
     <row r="182" spans="4:4">
-      <c r="D182" s="21"/>
+      <c r="D182" s="26"/>
     </row>
     <row r="183" spans="4:4">
-      <c r="D183" s="21"/>
+      <c r="D183" s="26"/>
     </row>
     <row r="184" spans="4:4">
-      <c r="D184" s="21"/>
+      <c r="D184" s="26"/>
     </row>
     <row r="185" spans="4:4">
-      <c r="D185" s="21"/>
+      <c r="D185" s="26"/>
     </row>
     <row r="186" spans="4:4">
-      <c r="D186" s="21"/>
+      <c r="D186" s="26"/>
     </row>
     <row r="187" spans="4:4">
-      <c r="D187" s="21"/>
+      <c r="D187" s="26"/>
     </row>
     <row r="188" spans="4:4">
-      <c r="D188" s="21"/>
+      <c r="D188" s="26"/>
     </row>
     <row r="189" spans="4:4">
-      <c r="D189" s="21"/>
+      <c r="D189" s="26"/>
     </row>
     <row r="190" spans="4:4">
-      <c r="D190" s="21"/>
+      <c r="D190" s="26"/>
     </row>
     <row r="191" spans="4:4">
-      <c r="D191" s="21"/>
+      <c r="D191" s="26"/>
     </row>
     <row r="192" spans="4:4">
-      <c r="D192" s="21"/>
+      <c r="D192" s="26"/>
     </row>
     <row r="193" spans="4:4">
-      <c r="D193" s="21"/>
+      <c r="D193" s="26"/>
     </row>
     <row r="194" spans="4:4">
-      <c r="D194" s="21"/>
+      <c r="D194" s="26"/>
     </row>
     <row r="195" spans="4:4">
-      <c r="D195" s="21"/>
+      <c r="D195" s="26"/>
     </row>
     <row r="196" spans="4:4">
-      <c r="D196" s="21"/>
+      <c r="D196" s="26"/>
     </row>
     <row r="197" spans="4:4">
-      <c r="D197" s="21"/>
+      <c r="D197" s="26"/>
     </row>
     <row r="198" spans="4:4">
-      <c r="D198" s="21"/>
+      <c r="D198" s="26"/>
     </row>
     <row r="199" spans="4:4">
-      <c r="D199" s="21"/>
+      <c r="D199" s="26"/>
     </row>
     <row r="200" spans="4:4">
-      <c r="D200" s="43"/>
+      <c r="D200" s="26"/>
     </row>
     <row r="201" spans="4:4">
-      <c r="D201" s="43"/>
+      <c r="D201" s="26"/>
     </row>
     <row r="202" spans="4:4">
-      <c r="D202" s="43"/>
+      <c r="D202" s="26"/>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="26"/>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="26"/>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="45"/>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="45"/>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="45"/>
     </row>
   </sheetData>
   <sortState ref="G5:I11">
@@ -3633,7 +3664,7 @@
   <dimension ref="B1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -3654,7 +3685,7 @@
       <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="10">
         <v>0.04</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -3676,13 +3707,13 @@
       <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="13">
         <v>0.03</v>
       </c>
       <c r="J2" s="2"/>
@@ -3712,7 +3743,7 @@
         <v>300000</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>77</v>
       </c>
       <c r="L3" s="2">
@@ -3738,7 +3769,7 @@
         <v>25000</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>80</v>
       </c>
       <c r="L4" s="2">
@@ -3754,7 +3785,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="2">
@@ -3788,7 +3819,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L6" s="2">
@@ -3817,7 +3848,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>83</v>
       </c>
       <c r="L7" s="2">
@@ -3844,7 +3875,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>84</v>
       </c>
       <c r="L8" s="2">
@@ -3967,7 +3998,7 @@
       <c r="K12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="12">
         <v>0.05</v>
       </c>
       <c r="M12" s="2">
@@ -3991,7 +4022,7 @@
       <c r="K13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="12">
         <v>0.12</v>
       </c>
       <c r="M13" s="2">
@@ -4001,7 +4032,7 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <f>B13/E12</f>
         <v>0.50673167696261</v>
       </c>
@@ -4016,7 +4047,7 @@
       <c r="K14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="12">
         <v>0.2</v>
       </c>
       <c r="M14" s="2">
@@ -4028,7 +4059,7 @@
     <row r="15" spans="3:15">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4037,7 +4068,7 @@
       <c r="K15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="12">
         <v>0.3</v>
       </c>
       <c r="M15" s="2">
@@ -4058,7 +4089,7 @@
       <c r="K16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="12">
         <v>0.4</v>
       </c>
       <c r="M16" s="2">
@@ -4187,7 +4218,7 @@
     </row>
     <row r="25" spans="3:15">
       <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5478,8 +5509,8 @@
   <sheetPr/>
   <dimension ref="B2:S187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -5487,7 +5518,9 @@
     <col min="2" max="2" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5555555555556" style="2"/>
     <col min="4" max="4" width="11.1111111111111" style="2"/>
-    <col min="5" max="8" width="8.88888888888889" style="2"/>
+    <col min="5" max="5" width="8.88888888888889" style="2"/>
+    <col min="6" max="6" width="10.4444444444444" style="2"/>
+    <col min="7" max="8" width="8.88888888888889" style="2"/>
     <col min="9" max="9" width="23.1111111111111" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5555555555556" style="2"/>
     <col min="11" max="12" width="8.88888888888889" style="2"/>
@@ -5501,8 +5534,8 @@
       <c r="B2" s="1">
         <v>45331</v>
       </c>
-      <c r="C2" s="2">
-        <v>6500000</v>
+      <c r="C2" s="4">
+        <v>6600000</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -5510,21 +5543,21 @@
         <v>45356</v>
       </c>
       <c r="C3" s="2">
-        <v>7424343</v>
+        <v>7524343</v>
       </c>
       <c r="D3" s="2">
         <f>IF(C3="","",C3-C2)</f>
         <v>924343</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f>IF(C3="","",(C3-C2)/C2)</f>
-        <v>0.142206615384615</v>
+        <v>0.14005196969697</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="2">
-        <v>14501061</v>
+        <v>16528945</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -5532,15 +5565,15 @@
         <v>45382</v>
       </c>
       <c r="C4" s="2">
-        <v>7875408</v>
+        <v>7975408</v>
       </c>
       <c r="D4" s="2">
         <f>IF(C4="","",C4-C3)</f>
         <v>451065</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f>IF(C4="","",(C4-C3)/C3)</f>
-        <v>0.0607548708350355</v>
+        <v>0.0599474266391099</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>100</v>
@@ -5554,28 +5587,28 @@
         <v>45412</v>
       </c>
       <c r="C5" s="2">
-        <v>7565229</v>
+        <v>7665229</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D4:D35" si="0">IF(C5="","",C5-C4)</f>
         <v>-310179</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" ref="E4:E35" si="1">IF(C5="","",(C5-C4)/C4)</f>
-        <v>-0.0393857689658745</v>
+        <v>-0.0388919287890977</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J5" s="2">
-        <v>5290000</v>
+        <v>5590000</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>102</v>
       </c>
       <c r="S5" s="2">
         <f>S6+S7</f>
-        <v>15640579</v>
+        <v>17982570</v>
       </c>
     </row>
     <row r="6" spans="2:19">
@@ -5583,25 +5616,25 @@
         <v>45443</v>
       </c>
       <c r="C6" s="2">
-        <v>7469493</v>
+        <v>7569493</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>-95736</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>-0.0126547392022105</v>
+        <v>-0.0124896464280454</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>-1504325</v>
+        <v>-1458334</v>
       </c>
       <c r="S6" s="2">
         <f>股票損益!R13</f>
-        <v>13878079</v>
+        <v>15961070</v>
       </c>
     </row>
     <row r="7" ht="16.95" spans="2:19">
@@ -5609,36 +5642,36 @@
         <v>45473</v>
       </c>
       <c r="C7" s="2">
-        <v>8115139</v>
+        <v>8215139</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>645646</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>0.0864377274334416</v>
+        <v>0.0852958051483765</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J7" s="2">
-        <v>254355</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7">
+        <v>60533</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8">
         <f>SUM(N8:N99)</f>
-        <v>4800</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+        <v>54000</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="R7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="8">
         <f>SUM(S8:S24)</f>
-        <v>1762500</v>
+        <v>2021500</v>
       </c>
     </row>
     <row r="8" spans="2:19">
@@ -5646,22 +5679,22 @@
         <v>45504</v>
       </c>
       <c r="C8" s="2">
-        <v>7727661</v>
+        <v>7827661</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>-387478</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>-0.0477475493642191</v>
+        <v>-0.0471663352257339</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="2">
         <f>N7</f>
-        <v>4800</v>
+        <v>54000</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>106</v>
@@ -5670,22 +5703,22 @@
         <v>107</v>
       </c>
       <c r="N8" s="2">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="9">
         <f>股票損益!O12</f>
-        <v>352.5</v>
+        <v>404.3</v>
       </c>
       <c r="R8" s="2">
         <v>5</v>
       </c>
       <c r="S8" s="2">
         <f>Q8*R8*1000</f>
-        <v>1762500</v>
+        <v>2021500</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -5693,15 +5726,15 @@
         <v>45535</v>
       </c>
       <c r="C9" s="2">
-        <v>7537937</v>
+        <v>7637937</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>-189724</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>-0.0245512840172466</v>
+        <v>-0.0242376362491937</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>108</v>
@@ -5710,6 +5743,12 @@
         <v>0</v>
       </c>
       <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="2">
+        <v>48000</v>
+      </c>
       <c r="O9" s="3"/>
     </row>
     <row r="10" ht="16.95" spans="2:10">
@@ -5717,22 +5756,22 @@
         <v>45565</v>
       </c>
       <c r="C10" s="2">
-        <v>7739993</v>
+        <v>7839993</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>202056</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>0.0268052120891963</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="7">
+        <v>0.0264542637625841</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="8">
         <f>S7</f>
-        <v>1762500</v>
+        <v>2021500</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -5740,22 +5779,22 @@
         <v>45597</v>
       </c>
       <c r="C11" s="2">
-        <v>7917685</v>
+        <v>8017685</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>177692</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>0.0229576435017448</v>
+        <v>0.0226648161548103</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2">
         <f>SUM(J3:J10)</f>
-        <v>14148391</v>
+        <v>16636644</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5763,15 +5802,15 @@
         <v>45626</v>
       </c>
       <c r="C12" s="2">
-        <v>8001815</v>
+        <v>8101815</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>84130</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>0.0106255805832134</v>
+        <v>0.0104930537929589</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -5779,31 +5818,31 @@
         <v>45657</v>
       </c>
       <c r="C13" s="2">
-        <v>8406389</v>
+        <v>8506389</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>404574</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>0.0505602791366709</v>
+        <v>0.0499362179955973</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>45688</v>
       </c>
-      <c r="C14" s="2">
-        <v>10216721</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="4">
+        <v>10316721</v>
+      </c>
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>1810332</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>0.215351918641881</v>
+        <v>0.212820269564441</v>
       </c>
       <c r="I14"/>
     </row>
@@ -5812,15 +5851,15 @@
         <v>45747</v>
       </c>
       <c r="C15" s="2">
-        <v>8664502</v>
+        <v>8764502</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>-1552219</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>-0.151929273589834</v>
+        <v>-0.150456622797108</v>
       </c>
       <c r="I15"/>
     </row>
@@ -5829,15 +5868,15 @@
         <v>45749</v>
       </c>
       <c r="C16" s="2">
-        <v>9139455</v>
+        <v>9239455</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>474953</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>0.0548159605710749</v>
+        <v>0.0541905290226416</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -5845,15 +5884,15 @@
         <v>45777</v>
       </c>
       <c r="C17" s="2">
-        <v>8538664</v>
+        <v>8638664</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>-600791</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>-0.065735976598167</v>
+        <v>-0.0650245063155781</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -5861,15 +5900,15 @@
         <v>45806</v>
       </c>
       <c r="C18" s="2">
-        <v>9057060</v>
+        <v>9157060</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>518396</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>0.0607116054689586</v>
+        <v>0.0600088161780572</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -5877,15 +5916,15 @@
         <v>45838</v>
       </c>
       <c r="C19" s="2">
-        <v>9527683</v>
+        <v>9627683</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>470623</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>0.0519620053306481</v>
+        <v>0.0513945524000061</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -5893,15 +5932,15 @@
         <v>45869</v>
       </c>
       <c r="C20" s="2">
-        <v>10628568</v>
+        <v>10728568</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>1100885</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>0.11554593073678</v>
+        <v>0.114345788077983</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -5909,15 +5948,15 @@
         <v>45899</v>
       </c>
       <c r="C21" s="2">
-        <v>10749001</v>
+        <v>10849001</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>120433</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>0.0113310654831394</v>
+        <v>0.0112254496592649</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -5925,63 +5964,89 @@
         <v>45930</v>
       </c>
       <c r="C22" s="2">
-        <v>12293462</v>
+        <v>12393462</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>1544461</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>0.143684143298526</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="2" t="str">
+        <v>0.142359743537677</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14234577</v>
+      </c>
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="4" t="str">
+        <v>1841115</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="2" t="str">
+        <v>0.148555343131725</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C24" s="2">
+        <v>13639890</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="4" t="str">
+        <v>-594687</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="2" t="str">
+        <v>-0.0417776376495066</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14942275</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="4" t="str">
+        <v>1302385</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
+        <v>0.0954835412895559</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="2:5">
+      <c r="B27" s="1">
+        <v>46081</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5991,7 +6056,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="E28" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6001,7 +6066,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="4" t="str">
+      <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6011,7 +6076,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6021,7 +6086,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6031,7 +6096,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E32" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6041,7 +6106,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E33" s="4" t="str">
+      <c r="E33" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6051,7 +6116,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6061,7 +6126,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E35" s="4" t="str">
+      <c r="E35" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6071,7 +6136,7 @@
         <f t="shared" ref="D36:D67" si="2">IF(C36="","",C36-C35)</f>
         <v/>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="5" t="str">
         <f t="shared" ref="E36:E67" si="3">IF(C36="","",(C36-C35)/C35)</f>
         <v/>
       </c>
@@ -6081,7 +6146,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6091,7 +6156,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E38" s="4" t="str">
+      <c r="E38" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6101,7 +6166,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E39" s="4" t="str">
+      <c r="E39" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6111,7 +6176,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E40" s="4" t="str">
+      <c r="E40" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6121,7 +6186,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E41" s="4" t="str">
+      <c r="E41" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6131,7 +6196,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E42" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6141,7 +6206,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E43" s="4" t="str">
+      <c r="E43" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6151,7 +6216,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E44" s="4" t="str">
+      <c r="E44" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6161,7 +6226,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E45" s="4" t="str">
+      <c r="E45" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6171,7 +6236,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E46" s="4" t="str">
+      <c r="E46" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6181,7 +6246,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E47" s="4" t="str">
+      <c r="E47" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6191,7 +6256,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E48" s="4" t="str">
+      <c r="E48" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6201,7 +6266,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E49" s="4" t="str">
+      <c r="E49" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6211,7 +6276,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E50" s="4" t="str">
+      <c r="E50" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6221,7 +6286,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E51" s="4" t="str">
+      <c r="E51" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6231,7 +6296,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E52" s="4" t="str">
+      <c r="E52" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6241,7 +6306,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E53" s="4" t="str">
+      <c r="E53" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6251,7 +6316,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E54" s="4" t="str">
+      <c r="E54" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6261,7 +6326,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E55" s="4" t="str">
+      <c r="E55" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6271,7 +6336,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E56" s="4" t="str">
+      <c r="E56" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6281,7 +6346,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E57" s="4" t="str">
+      <c r="E57" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6291,7 +6356,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E58" s="4" t="str">
+      <c r="E58" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6301,7 +6366,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E59" s="4" t="str">
+      <c r="E59" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6311,7 +6376,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E60" s="4" t="str">
+      <c r="E60" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6321,7 +6386,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E61" s="4" t="str">
+      <c r="E61" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6331,7 +6396,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E62" s="4" t="str">
+      <c r="E62" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6341,7 +6406,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E63" s="4" t="str">
+      <c r="E63" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6351,7 +6416,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E64" s="4" t="str">
+      <c r="E64" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6361,7 +6426,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E65" s="4" t="str">
+      <c r="E65" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6371,7 +6436,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E66" s="4" t="str">
+      <c r="E66" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6381,7 +6446,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E67" s="4" t="str">
+      <c r="E67" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6391,7 +6456,7 @@
         <f t="shared" ref="D68:D99" si="4">IF(C68="","",C68-C67)</f>
         <v/>
       </c>
-      <c r="E68" s="4" t="str">
+      <c r="E68" s="5" t="str">
         <f t="shared" ref="E68:E99" si="5">IF(C68="","",(C68-C67)/C67)</f>
         <v/>
       </c>
@@ -6401,7 +6466,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E69" s="4" t="str">
+      <c r="E69" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6411,7 +6476,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E70" s="4" t="str">
+      <c r="E70" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6421,7 +6486,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E71" s="4" t="str">
+      <c r="E71" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6431,7 +6496,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E72" s="4" t="str">
+      <c r="E72" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6441,7 +6506,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E73" s="4" t="str">
+      <c r="E73" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6451,7 +6516,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E74" s="4" t="str">
+      <c r="E74" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6461,7 +6526,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E75" s="4" t="str">
+      <c r="E75" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6471,7 +6536,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E76" s="4" t="str">
+      <c r="E76" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6481,7 +6546,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E77" s="4" t="str">
+      <c r="E77" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6491,7 +6556,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E78" s="4" t="str">
+      <c r="E78" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6501,7 +6566,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E79" s="4" t="str">
+      <c r="E79" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6511,7 +6576,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E80" s="4" t="str">
+      <c r="E80" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6521,7 +6586,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E81" s="4" t="str">
+      <c r="E81" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6531,7 +6596,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E82" s="4" t="str">
+      <c r="E82" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6541,7 +6606,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E83" s="4" t="str">
+      <c r="E83" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6551,7 +6616,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E84" s="4" t="str">
+      <c r="E84" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6561,7 +6626,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E85" s="4" t="str">
+      <c r="E85" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6571,7 +6636,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E86" s="4" t="str">
+      <c r="E86" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6581,7 +6646,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E87" s="4" t="str">
+      <c r="E87" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6591,7 +6656,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E88" s="4" t="str">
+      <c r="E88" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6601,7 +6666,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E89" s="4" t="str">
+      <c r="E89" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6611,7 +6676,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E90" s="4" t="str">
+      <c r="E90" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6621,7 +6686,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E91" s="4" t="str">
+      <c r="E91" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6631,7 +6696,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E92" s="4" t="str">
+      <c r="E92" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6641,7 +6706,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E93" s="4" t="str">
+      <c r="E93" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6651,7 +6716,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E94" s="4" t="str">
+      <c r="E94" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6661,7 +6726,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E95" s="4" t="str">
+      <c r="E95" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6671,7 +6736,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E96" s="4" t="str">
+      <c r="E96" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6681,7 +6746,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E97" s="4" t="str">
+      <c r="E97" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6691,7 +6756,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E98" s="4" t="str">
+      <c r="E98" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6701,7 +6766,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E99" s="4" t="str">
+      <c r="E99" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6711,7 +6776,7 @@
         <f t="shared" ref="D100:D131" si="6">IF(C100="","",C100-C99)</f>
         <v/>
       </c>
-      <c r="E100" s="4" t="str">
+      <c r="E100" s="5" t="str">
         <f t="shared" ref="E100:E131" si="7">IF(C100="","",(C100-C99)/C99)</f>
         <v/>
       </c>
@@ -6721,7 +6786,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E101" s="4" t="str">
+      <c r="E101" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6731,7 +6796,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E102" s="4" t="str">
+      <c r="E102" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6741,7 +6806,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E103" s="4" t="str">
+      <c r="E103" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6751,7 +6816,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E104" s="4" t="str">
+      <c r="E104" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6761,7 +6826,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E105" s="4" t="str">
+      <c r="E105" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6771,7 +6836,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E106" s="4" t="str">
+      <c r="E106" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6781,7 +6846,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E107" s="4" t="str">
+      <c r="E107" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6791,7 +6856,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E108" s="4" t="str">
+      <c r="E108" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6801,7 +6866,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E109" s="4" t="str">
+      <c r="E109" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6811,7 +6876,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E110" s="4" t="str">
+      <c r="E110" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6821,7 +6886,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E111" s="4" t="str">
+      <c r="E111" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6831,7 +6896,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E112" s="4" t="str">
+      <c r="E112" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6841,7 +6906,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E113" s="4" t="str">
+      <c r="E113" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6851,7 +6916,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E114" s="4" t="str">
+      <c r="E114" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6861,7 +6926,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E115" s="4" t="str">
+      <c r="E115" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6871,7 +6936,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E116" s="4" t="str">
+      <c r="E116" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6881,7 +6946,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E117" s="4" t="str">
+      <c r="E117" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6891,7 +6956,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E118" s="4" t="str">
+      <c r="E118" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6901,7 +6966,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E119" s="4" t="str">
+      <c r="E119" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6911,7 +6976,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E120" s="4" t="str">
+      <c r="E120" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6921,7 +6986,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E121" s="4" t="str">
+      <c r="E121" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6931,7 +6996,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E122" s="4" t="str">
+      <c r="E122" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6941,7 +7006,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E123" s="4" t="str">
+      <c r="E123" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6951,7 +7016,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E124" s="4" t="str">
+      <c r="E124" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6961,7 +7026,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E125" s="4" t="str">
+      <c r="E125" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6971,7 +7036,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E126" s="4" t="str">
+      <c r="E126" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6981,7 +7046,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E127" s="4" t="str">
+      <c r="E127" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6991,7 +7056,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E128" s="4" t="str">
+      <c r="E128" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7001,7 +7066,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E129" s="4" t="str">
+      <c r="E129" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7011,7 +7076,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E130" s="4" t="str">
+      <c r="E130" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7021,7 +7086,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E131" s="4" t="str">
+      <c r="E131" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7031,7 +7096,7 @@
         <f t="shared" ref="D132:D163" si="8">IF(C132="","",C132-C131)</f>
         <v/>
       </c>
-      <c r="E132" s="4" t="str">
+      <c r="E132" s="5" t="str">
         <f t="shared" ref="E132:E163" si="9">IF(C132="","",(C132-C131)/C131)</f>
         <v/>
       </c>
@@ -7041,7 +7106,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E133" s="4" t="str">
+      <c r="E133" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7051,7 +7116,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E134" s="4" t="str">
+      <c r="E134" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7061,7 +7126,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E135" s="4" t="str">
+      <c r="E135" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7071,7 +7136,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E136" s="4" t="str">
+      <c r="E136" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7081,7 +7146,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E137" s="4" t="str">
+      <c r="E137" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7091,7 +7156,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E138" s="4" t="str">
+      <c r="E138" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7101,7 +7166,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E139" s="4" t="str">
+      <c r="E139" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7111,7 +7176,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E140" s="4" t="str">
+      <c r="E140" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7121,7 +7186,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E141" s="4" t="str">
+      <c r="E141" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7131,7 +7196,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E142" s="4" t="str">
+      <c r="E142" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7141,7 +7206,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E143" s="4" t="str">
+      <c r="E143" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7151,7 +7216,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E144" s="4" t="str">
+      <c r="E144" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7161,7 +7226,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E145" s="4" t="str">
+      <c r="E145" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7171,7 +7236,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E146" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7181,7 +7246,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E147" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7191,7 +7256,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E148" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7201,7 +7266,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E149" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7211,7 +7276,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E150" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7221,7 +7286,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E151" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7231,7 +7296,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E152" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7241,7 +7306,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E153" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7251,7 +7316,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E154" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7261,7 +7326,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E155" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7271,7 +7336,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E156" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7281,7 +7346,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E157" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7291,7 +7356,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E158" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7301,7 +7366,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E159" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7311,7 +7376,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E160" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7321,7 +7386,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E161" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7331,7 +7396,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E162" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7341,7 +7406,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E163" s="5" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7351,7 +7416,7 @@
         <f t="shared" ref="D164:D187" si="10">IF(C164="","",C164-C163)</f>
         <v/>
       </c>
-      <c r="E164" s="4" t="str">
+      <c r="E164" s="5" t="str">
         <f t="shared" ref="E164:E187" si="11">IF(C164="","",(C164-C163)/C163)</f>
         <v/>
       </c>
@@ -7361,7 +7426,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E165" s="4" t="str">
+      <c r="E165" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7371,7 +7436,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E166" s="4" t="str">
+      <c r="E166" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7381,7 +7446,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E167" s="4" t="str">
+      <c r="E167" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7391,7 +7456,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E168" s="4" t="str">
+      <c r="E168" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7401,7 +7466,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E169" s="4" t="str">
+      <c r="E169" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7411,7 +7476,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E170" s="4" t="str">
+      <c r="E170" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7421,7 +7486,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E171" s="4" t="str">
+      <c r="E171" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7431,7 +7496,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E172" s="4" t="str">
+      <c r="E172" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7441,7 +7506,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E173" s="4" t="str">
+      <c r="E173" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7451,7 +7516,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E174" s="4" t="str">
+      <c r="E174" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7461,7 +7526,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E175" s="4" t="str">
+      <c r="E175" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7471,7 +7536,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E176" s="4" t="str">
+      <c r="E176" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7481,7 +7546,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E177" s="4" t="str">
+      <c r="E177" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7491,7 +7556,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E178" s="4" t="str">
+      <c r="E178" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7501,7 +7566,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E179" s="4" t="str">
+      <c r="E179" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7511,7 +7576,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E180" s="4" t="str">
+      <c r="E180" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7521,7 +7586,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E181" s="4" t="str">
+      <c r="E181" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7531,7 +7596,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E182" s="4" t="str">
+      <c r="E182" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7541,7 +7606,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E183" s="4" t="str">
+      <c r="E183" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7551,7 +7616,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E184" s="4" t="str">
+      <c r="E184" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7561,7 +7626,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E185" s="4" t="str">
+      <c r="E185" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7571,7 +7636,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E186" s="4" t="str">
+      <c r="E186" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -7581,7 +7646,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E187" s="4" t="str">
+      <c r="E187" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>

--- a/股票損益&房貸試算收入試算.xlsx
+++ b/股票損益&房貸試算收入試算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22931" windowHeight="9707"/>
+    <workbookView windowWidth="22391" windowHeight="10067" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票損益" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="新細明體"/>
+            <charset val="136"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="新細明體"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="新細明體"/>
+            <charset val="136"/>
+          </rPr>
+          <t>年終150萬+2個月</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -95,6 +125,9 @@
     <t>淨收入</t>
   </si>
   <si>
+    <t>正二(借券)</t>
+  </si>
+  <si>
     <t>股市未實現</t>
   </si>
   <si>
@@ -366,9 +399,6 @@
   </si>
   <si>
     <t>LINE</t>
-  </si>
-  <si>
-    <t>價格</t>
   </si>
   <si>
     <t>現金股利</t>
@@ -400,19 +430,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="181" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -443,6 +473,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -459,13 +496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -475,7 +505,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,9 +550,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,20 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -558,23 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +638,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,19 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,13 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,19 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,67 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,15 +926,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -926,17 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,17 +971,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,11 +1014,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,148 +1025,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1153,46 +1183,46 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1201,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1210,55 +1240,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
@@ -1267,19 +1297,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1598,8 +1628,8 @@
   <sheetPr/>
   <dimension ref="A1:AC209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -1633,7 +1663,7 @@
     <row r="2" spans="1:16">
       <c r="A2" s="17">
         <f>A1+M8</f>
-        <v>10659793</v>
+        <v>12516374</v>
       </c>
       <c r="C2" s="17"/>
       <c r="O2" s="1">
@@ -1672,7 +1702,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="35">
         <f>SUM($I5:$I14)</f>
-        <v>48000</v>
+        <v>54650</v>
       </c>
       <c r="J4" s="36"/>
     </row>
@@ -1692,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>48000</v>
+        <v>54650</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>4</v>
@@ -1721,18 +1751,21 @@
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="22"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="4">
+        <v>46055</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6650</v>
+      </c>
       <c r="J6" s="37"/>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="1">
-        <v>6630520</v>
-      </c>
-      <c r="N6" s="1">
-        <f>M6+Q12+Q13+Q14</f>
-        <v>7610370</v>
+        <v>9460301</v>
       </c>
       <c r="O6" s="1">
         <v>12000000</v>
@@ -1765,12 +1798,12 @@
     </row>
     <row r="7" ht="16.95" spans="2:23">
       <c r="B7" s="22"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="37"/>
       <c r="L7" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="9">
         <v>5234110</v>
@@ -1790,7 +1823,7 @@
         <v>67333.3333333333</v>
       </c>
       <c r="W7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:22">
@@ -1800,11 +1833,11 @@
       <c r="J8" s="37"/>
       <c r="L8"/>
       <c r="M8" s="1">
-        <f>M5+N6-M7</f>
-        <v>2424260</v>
+        <f>M5+M6-M7</f>
+        <v>4280841</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1813,7 +1846,7 @@
     <row r="9" spans="2:22">
       <c r="B9" s="22"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4"/>
       <c r="I9" s="1"/>
@@ -1839,13 +1872,13 @@
     <row r="10" spans="2:22">
       <c r="B10" s="22"/>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="1"/>
       <c r="J10" s="37"/>
       <c r="L10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S10" s="1">
         <f>S9/12</f>
@@ -1864,7 +1897,7 @@
     <row r="11" spans="2:22">
       <c r="B11" s="22"/>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <f>D9+D10</f>
@@ -1874,19 +1907,19 @@
       <c r="I11" s="1"/>
       <c r="J11" s="37"/>
       <c r="M11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1895,7 +1928,7 @@
     <row r="12" spans="2:22">
       <c r="B12" s="22"/>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <f>D11-D28</f>
@@ -1905,32 +1938,29 @@
       <c r="I12" s="1"/>
       <c r="J12" s="37"/>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" s="1">
-        <v>5</v>
-      </c>
-      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
         <v>239.17</v>
       </c>
-      <c r="O12" s="10">
-        <v>433.9</v>
+      <c r="O12" s="13">
+        <v>486.1</v>
       </c>
       <c r="P12" s="1">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
         <f>(O12-N12)*M12*1000+P12</f>
-        <v>979850</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <f>O12*5*1000</f>
-        <v>2169500</v>
-      </c>
-      <c r="S12" s="40">
-        <f>(P12+Q12)/(N12*M12*1000)</f>
-        <v>0.824559936446879</v>
-      </c>
+        <f>O12*M12*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="40"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1940,12 +1970,15 @@
       <c r="G13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="37"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="6">
+        <f>(O12-N12)/N12</f>
+        <v>1.0324455408287</v>
+      </c>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="28">
-        <v>16996464</v>
+      <c r="R13" s="7">
+        <v>18119476</v>
       </c>
       <c r="S13"/>
       <c r="T13" s="1"/>
@@ -1965,7 +1998,7 @@
       <c r="Q14"/>
       <c r="R14" s="1">
         <f>SUM(R11:R13)</f>
-        <v>19165964</v>
+        <v>18119476</v>
       </c>
       <c r="S14"/>
       <c r="T14" s="1"/>
@@ -1980,7 +2013,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" ht="16.95" spans="3:3">
       <c r="C16" s="17"/>
     </row>
     <row r="17" ht="16.95" spans="2:10">
@@ -2006,7 +2039,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="22"/>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
         <v>-139300</v>
@@ -2025,7 +2058,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="22"/>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>-210100</v>
@@ -2034,7 +2067,7 @@
         <v>45706</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>201960</v>
@@ -2044,7 +2077,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="22"/>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
         <v>-91300</v>
@@ -2053,7 +2086,7 @@
         <v>45723</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1">
         <v>17325</v>
@@ -2063,7 +2096,7 @@
     <row r="21" spans="2:15">
       <c r="B21" s="22"/>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1">
         <v>-610300</v>
@@ -2072,7 +2105,7 @@
         <v>45733</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1">
         <v>360</v>
@@ -2084,7 +2117,7 @@
     <row r="22" spans="2:15">
       <c r="B22" s="22"/>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
         <v>180900</v>
@@ -2093,7 +2126,7 @@
         <v>45737</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I22" s="1">
         <v>2078</v>
@@ -2105,7 +2138,7 @@
     <row r="23" spans="2:15">
       <c r="B23" s="22"/>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
         <v>-165600</v>
@@ -2130,7 +2163,7 @@
         <v>45763</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1">
         <v>175500</v>
@@ -2142,7 +2175,7 @@
     <row r="25" spans="2:15">
       <c r="B25" s="22"/>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
         <v>5234110</v>
@@ -2157,12 +2190,12 @@
         <v>20250</v>
       </c>
       <c r="J25" s="37"/>
-      <c r="O25" s="10"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="22"/>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(D18:D23)+I17</f>
@@ -2178,7 +2211,7 @@
         <v>41000</v>
       </c>
       <c r="J26" s="37"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="13"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2187,7 +2220,7 @@
     <row r="27" spans="2:29">
       <c r="B27" s="22"/>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
         <f>D25+D26</f>
@@ -2204,7 +2237,7 @@
     <row r="28" spans="2:29">
       <c r="B28" s="22"/>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="28">
         <f>D27-D43</f>
@@ -2231,7 +2264,7 @@
     <row r="30" spans="2:29">
       <c r="B30" s="22"/>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="1"/>
@@ -2244,7 +2277,7 @@
     <row r="31" spans="2:29">
       <c r="B31" s="22"/>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="1"/>
@@ -2320,7 +2353,7 @@
     <row r="36" spans="2:29">
       <c r="B36" s="22"/>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1">
         <v>-19000</v>
@@ -2329,7 +2362,7 @@
         <v>45303</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I36" s="1">
         <v>6210</v>
@@ -2346,7 +2379,7 @@
     <row r="37" spans="2:29">
       <c r="B37" s="22"/>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1">
         <v>657000</v>
@@ -2355,7 +2388,7 @@
         <v>45343</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I37" s="1">
         <v>12080</v>
@@ -2375,7 +2408,7 @@
     <row r="38" spans="2:29">
       <c r="B38" s="22"/>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1">
         <v>-10000</v>
@@ -2384,7 +2417,7 @@
         <v>45376</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I38" s="1">
         <v>3900</v>
@@ -2404,7 +2437,7 @@
     <row r="39" spans="2:29">
       <c r="B39" s="22"/>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1">
         <v>663000</v>
@@ -2433,7 +2466,7 @@
     <row r="40" spans="2:29">
       <c r="B40" s="22"/>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1">
         <v>38600</v>
@@ -2442,7 +2475,7 @@
         <v>45400</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I40" s="1">
         <v>155000</v>
@@ -2462,17 +2495,17 @@
     <row r="41" spans="2:29">
       <c r="B41" s="22"/>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1">
         <v>-74000</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="13"/>
       <c r="G41" s="4">
         <v>45470</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I41" s="1">
         <v>3879</v>
@@ -2518,7 +2551,7 @@
     <row r="43" spans="2:29">
       <c r="B43" s="22"/>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1">
         <v>231000</v>
@@ -2527,7 +2560,7 @@
         <v>45489</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I43" s="1">
         <v>13902</v>
@@ -2547,7 +2580,7 @@
     <row r="44" spans="2:29">
       <c r="B44" s="22"/>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1">
         <f>SUM(D36:D41)+I35</f>
@@ -2557,7 +2590,7 @@
         <v>45506</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I44" s="1">
         <v>81600</v>
@@ -2577,7 +2610,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="22"/>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
         <f>D43+D44</f>
@@ -2587,7 +2620,7 @@
         <v>45513</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I45" s="1">
         <v>783</v>
@@ -2597,7 +2630,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="22"/>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="28">
         <f>D45-D63</f>
@@ -2607,7 +2640,7 @@
         <v>45523</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I46" s="1">
         <v>1161</v>
@@ -2620,7 +2653,7 @@
         <v>45525</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I47" s="1">
         <v>1237</v>
@@ -2630,7 +2663,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="22"/>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" s="4">
         <v>45574</v>
@@ -2646,13 +2679,13 @@
     <row r="49" spans="2:10">
       <c r="B49" s="29"/>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" s="4">
         <v>45643</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I49" s="1">
         <v>1273</v>
@@ -2697,7 +2730,7 @@
       <c r="E55" s="20"/>
       <c r="F55" s="19"/>
       <c r="G55" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="35">
@@ -2709,7 +2742,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="22"/>
       <c r="C56" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D56" s="32">
         <v>346100</v>
@@ -2720,7 +2753,7 @@
         <v>45135</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I56" s="33">
         <v>4750</v>
@@ -2730,7 +2763,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="22"/>
       <c r="C57" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" s="32">
         <v>32738</v>
@@ -2741,7 +2774,7 @@
         <v>45149</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I57" s="33">
         <v>2300</v>
@@ -2751,7 +2784,7 @@
     <row r="58" spans="2:10">
       <c r="B58" s="22"/>
       <c r="C58" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" s="32">
         <v>-14900</v>
@@ -2762,7 +2795,7 @@
         <v>45149</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I58" s="33">
         <v>54266</v>
@@ -2772,7 +2805,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="22"/>
       <c r="C59" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" s="32">
         <v>-171900</v>
@@ -2783,7 +2816,7 @@
         <v>45244</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I59" s="33">
         <v>4790</v>
@@ -2793,7 +2826,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="22"/>
       <c r="C60" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D60" s="32">
         <v>-68600</v>
@@ -2804,7 +2837,7 @@
         <v>45244</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I60" s="33">
         <v>635</v>
@@ -2814,7 +2847,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="22"/>
       <c r="C61" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61" s="32">
         <v>18500</v>
@@ -2825,7 +2858,7 @@
         <v>45272</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I61" s="33">
         <v>34599</v>
@@ -2842,7 +2875,7 @@
         <v>45272</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I62" s="33">
         <v>2460</v>
@@ -2852,7 +2885,7 @@
     <row r="63" spans="2:10">
       <c r="B63" s="22"/>
       <c r="C63" s="31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63" s="32">
         <v>338000</v>
@@ -2867,7 +2900,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="22"/>
       <c r="C64" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="32">
         <f>SUM(D56:D61)+I55</f>
@@ -2883,7 +2916,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="22"/>
       <c r="C65" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="33">
         <f>D63+D64</f>
@@ -2899,7 +2932,7 @@
     <row r="66" ht="16.95" spans="2:10">
       <c r="B66" s="41"/>
       <c r="C66" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="42">
         <f>D65-D80</f>
@@ -2950,7 +2983,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="22"/>
       <c r="C70" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D70" s="37">
         <v>890500</v>
@@ -2964,7 +2997,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="22"/>
       <c r="C71" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71" s="37">
         <v>-9600</v>
@@ -2978,7 +3011,7 @@
     <row r="72" spans="2:10">
       <c r="B72" s="22"/>
       <c r="C72" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D72" s="37">
         <v>-38800</v>
@@ -2992,7 +3025,7 @@
     <row r="73" spans="2:10">
       <c r="B73" s="22"/>
       <c r="C73" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D73" s="37">
         <v>137800</v>
@@ -3006,7 +3039,7 @@
     <row r="74" spans="2:10">
       <c r="B74" s="22"/>
       <c r="C74" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D74" s="37">
         <v>-49300</v>
@@ -3020,7 +3053,7 @@
     <row r="75" spans="2:10">
       <c r="B75" s="22"/>
       <c r="C75" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D75" s="37">
         <v>15600</v>
@@ -3034,7 +3067,7 @@
     <row r="76" spans="2:10">
       <c r="B76" s="22"/>
       <c r="C76" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D76" s="37">
         <v>-19600</v>
@@ -3048,7 +3081,7 @@
     <row r="77" spans="2:10">
       <c r="B77" s="22"/>
       <c r="C77" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D77" s="37">
         <v>58600</v>
@@ -3062,7 +3095,7 @@
     <row r="78" spans="2:10">
       <c r="B78" s="22"/>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D78" s="37">
         <v>75005</v>
@@ -3086,7 +3119,7 @@
     <row r="80" spans="2:10">
       <c r="B80" s="22"/>
       <c r="C80" s="31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80" s="37">
         <v>140700</v>
@@ -3100,7 +3133,7 @@
     <row r="81" spans="2:10">
       <c r="B81" s="22"/>
       <c r="C81" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" s="37">
         <f>SUM(D70:D78)</f>
@@ -3115,7 +3148,7 @@
     <row r="82" spans="2:10">
       <c r="B82" s="22"/>
       <c r="C82" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="37">
         <f>D80+D81</f>
@@ -3130,7 +3163,7 @@
     <row r="83" ht="16.95" spans="2:4">
       <c r="B83" s="41"/>
       <c r="C83" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" s="44">
         <f>D82-D103</f>
@@ -3153,7 +3186,7 @@
     <row r="87" spans="2:4">
       <c r="B87" s="22"/>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87" s="37">
         <v>11300</v>
@@ -3162,7 +3195,7 @@
     <row r="88" spans="2:4">
       <c r="B88" s="22"/>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D88" s="37">
         <v>33300</v>
@@ -3171,7 +3204,7 @@
     <row r="89" spans="2:4">
       <c r="B89" s="22"/>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D89" s="37">
         <v>108700</v>
@@ -3180,7 +3213,7 @@
     <row r="90" spans="2:4">
       <c r="B90" s="22"/>
       <c r="C90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D90" s="37">
         <v>-14800</v>
@@ -3189,7 +3222,7 @@
     <row r="91" spans="2:4">
       <c r="B91" s="22"/>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91" s="37">
         <v>35300</v>
@@ -3198,7 +3231,7 @@
     <row r="92" spans="2:4">
       <c r="B92" s="22"/>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D92" s="37">
         <v>-8900</v>
@@ -3207,7 +3240,7 @@
     <row r="93" spans="2:4">
       <c r="B93" s="22"/>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D93" s="37">
         <v>-6000</v>
@@ -3216,7 +3249,7 @@
     <row r="94" spans="2:4">
       <c r="B94" s="22"/>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D94" s="37">
         <v>56100</v>
@@ -3225,7 +3258,7 @@
     <row r="95" spans="2:4">
       <c r="B95" s="22"/>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D95" s="37">
         <v>1900</v>
@@ -3234,7 +3267,7 @@
     <row r="96" spans="2:4">
       <c r="B96" s="22"/>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D96" s="37">
         <v>-12700</v>
@@ -3243,7 +3276,7 @@
     <row r="97" spans="2:4">
       <c r="B97" s="22"/>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D97" s="37">
         <v>77700</v>
@@ -3252,7 +3285,7 @@
     <row r="98" spans="2:4">
       <c r="B98" s="22"/>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D98" s="37">
         <v>-13200</v>
@@ -3261,7 +3294,7 @@
     <row r="99" spans="2:4">
       <c r="B99" s="22"/>
       <c r="C99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D99" s="37">
         <v>-10500</v>
@@ -3270,7 +3303,7 @@
     <row r="100" spans="2:4">
       <c r="B100" s="22"/>
       <c r="C100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D100" s="37">
         <v>244900</v>
@@ -3279,7 +3312,7 @@
     <row r="101" spans="2:4">
       <c r="B101" s="22"/>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D101" s="37">
         <v>67032</v>
@@ -3292,7 +3325,7 @@
     <row r="103" spans="2:4">
       <c r="B103" s="22"/>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" s="37">
         <v>712600</v>
@@ -3301,7 +3334,7 @@
     <row r="104" spans="2:4">
       <c r="B104" s="22"/>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" s="37">
         <f>SUM(D87:D101)</f>
@@ -3311,7 +3344,7 @@
     <row r="105" spans="2:4">
       <c r="B105" s="22"/>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" s="37">
         <f>D103+D104</f>
@@ -3321,7 +3354,7 @@
     <row r="106" ht="16.95" spans="2:4">
       <c r="B106" s="41"/>
       <c r="C106" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D106" s="44">
         <f>D105-D114</f>
@@ -3339,7 +3372,7 @@
     <row r="110" spans="2:4">
       <c r="B110" s="22"/>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D110" s="37">
         <v>49400</v>
@@ -3348,7 +3381,7 @@
     <row r="111" spans="2:4">
       <c r="B111" s="22"/>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D111" s="37">
         <v>64300</v>
@@ -3357,7 +3390,7 @@
     <row r="112" spans="2:4">
       <c r="B112" s="22"/>
       <c r="C112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D112" s="37">
         <v>-6000</v>
@@ -3370,7 +3403,7 @@
     <row r="114" spans="2:4">
       <c r="B114" s="22"/>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" s="37">
         <v>63700</v>
@@ -3379,7 +3412,7 @@
     <row r="115" spans="2:4">
       <c r="B115" s="22"/>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" s="37">
         <f>SUM(D110:D112)</f>
@@ -3389,7 +3422,7 @@
     <row r="116" ht="16.95" spans="2:4">
       <c r="B116" s="41"/>
       <c r="C116" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="44">
         <f>D114+D115</f>
@@ -3690,7 +3723,7 @@
   <dimension ref="B1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -3709,20 +3742,20 @@
   <sheetData>
     <row r="1" spans="4:15">
       <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="11">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10">
         <v>0.04</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1">
         <v>10000000</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3731,20 +3764,20 @@
     </row>
     <row r="2" spans="4:15">
       <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="12">
+        <v>72</v>
+      </c>
+      <c r="E2" s="11">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="14">
         <v>0.03</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <f>F9</f>
@@ -3756,13 +3789,13 @@
     </row>
     <row r="3" spans="4:15">
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>500000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1">
         <f>I1*I2</f>
@@ -3770,7 +3803,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1">
         <v>207000</v>
@@ -3781,14 +3814,14 @@
     </row>
     <row r="4" spans="4:15">
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
         <f>K18</f>
         <v>173506.24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1">
         <f>I3/12</f>
@@ -3796,7 +3829,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1">
         <f>L2-L3</f>
@@ -3812,7 +3845,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1">
         <f>I3</f>
@@ -3846,7 +3879,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" s="1">
         <v>270000</v>
@@ -3875,7 +3908,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -3887,7 +3920,7 @@
     <row r="8" spans="3:15">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1">
         <f>$E$3</f>
@@ -3902,7 +3935,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8" s="1">
         <v>124000</v>
@@ -3918,7 +3951,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <f>SUM(E6:E8)</f>
@@ -3936,7 +3969,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1">
         <f>(L4+MAX(0,L5-L6))-L8</f>
@@ -3953,7 +3986,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1">
         <f>E9+$I$3</f>
@@ -3973,7 +4006,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -3981,7 +4014,7 @@
     <row r="11" spans="3:15">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1">
         <f>E10-$E$4</f>
@@ -3996,10 +4029,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4007,7 +4040,7 @@
     <row r="12" spans="3:15">
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1">
         <f>E11/12</f>
@@ -4022,9 +4055,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="13">
+        <v>92</v>
+      </c>
+      <c r="L12" s="12">
         <v>0.05</v>
       </c>
       <c r="M12" s="1">
@@ -4046,9 +4079,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="13">
+        <v>93</v>
+      </c>
+      <c r="L13" s="12">
         <v>0.12</v>
       </c>
       <c r="M13" s="1">
@@ -4058,7 +4091,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <f>B13/E12</f>
         <v>0.50673167696261</v>
       </c>
@@ -4071,9 +4104,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="13">
+        <v>94</v>
+      </c>
+      <c r="L14" s="12">
         <v>0.2</v>
       </c>
       <c r="M14" s="1">
@@ -4085,16 +4118,16 @@
     <row r="15" spans="3:15">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="13">
+        <v>95</v>
+      </c>
+      <c r="L15" s="12">
         <v>0.3</v>
       </c>
       <c r="M15" s="1">
@@ -4113,9 +4146,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="13">
+        <v>96</v>
+      </c>
+      <c r="L16" s="12">
         <v>0.4</v>
       </c>
       <c r="M16" s="1">
@@ -4171,7 +4204,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J20" s="1">
         <v>3500000</v>
@@ -4187,7 +4220,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J21" s="1">
         <f>IF(J20&lt;560000,J20-J20*L12,IF(J20&lt;1260000,J20-(J20*L13-M13),IF(J20&lt;2520000,J20-(J20*L14-M14),IF(J20&lt;4720000,J20-(J20*L15-M15),J20-(J20*L16-M16)))))</f>
@@ -4244,7 +4277,7 @@
     </row>
     <row r="25" spans="3:15">
       <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5533,10 +5566,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:S187"/>
+  <dimension ref="B2:O187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -5552,8 +5585,7 @@
     <col min="11" max="12" width="8.88888888888889" style="1"/>
     <col min="13" max="13" width="8.88888888888889" style="4"/>
     <col min="14" max="14" width="9.44444444444444" style="1"/>
-    <col min="15" max="18" width="8.88888888888889" style="1"/>
-    <col min="19" max="19" width="11.5555555555556" style="1"/>
+    <col min="15" max="15" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -5580,10 +5612,10 @@
         <v>0.14005196969697</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3" s="1">
-        <v>17120706</v>
+        <v>23186151</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -5602,13 +5634,13 @@
         <v>0.0599474266391099</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1">
-        <v>-6160000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
+        <v>-6660000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="3">
         <v>45412</v>
       </c>
@@ -5624,20 +5656,16 @@
         <v>-0.0388919287890977</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" s="1">
         <v>5590000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="1">
-        <f>S6+S7</f>
-        <v>19165964</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="3">
         <v>45443</v>
       </c>
@@ -5658,12 +5686,8 @@
       <c r="J6" s="1">
         <v>-1435278</v>
       </c>
-      <c r="S6" s="1">
-        <f>股票損益!R13</f>
-        <v>16996464</v>
-      </c>
-    </row>
-    <row r="7" ht="16.95" spans="2:19">
+    </row>
+    <row r="7" ht="16.95" spans="2:14">
       <c r="B7" s="3">
         <v>45473</v>
       </c>
@@ -5679,28 +5703,18 @@
         <v>0.0852958051483765</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1">
-        <v>78765</v>
+        <v>53765</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="9">
         <f>SUM(N8:N99)</f>
-        <v>6300</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="9">
-        <f>SUM(S8:S24)</f>
-        <v>2169500</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="3">
         <v>45504</v>
       </c>
@@ -5720,7 +5734,7 @@
       </c>
       <c r="J8" s="1">
         <f>N7</f>
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>105</v>
@@ -5728,24 +5742,7 @@
       <c r="M8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="1">
-        <v>6300</v>
-      </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="10">
-        <f>股票損益!O12</f>
-        <v>433.9</v>
-      </c>
-      <c r="R8" s="1">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1">
-        <f>Q8*R8*1000</f>
-        <v>2169500</v>
-      </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="3">
@@ -5765,9 +5762,6 @@
       <c r="I9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
       <c r="L9" s="4"/>
       <c r="O9" s="4"/>
     </row>
@@ -5789,10 +5783,7 @@
       <c r="I10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="9">
-        <f>S7</f>
-        <v>2169500</v>
-      </c>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3">
@@ -5814,7 +5805,7 @@
       </c>
       <c r="J11" s="1">
         <f>SUM(J3:J10)</f>
-        <v>17369993</v>
+        <v>20734638</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -6047,14 +6038,16 @@
       <c r="B26" s="3">
         <v>46053</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1" t="str">
+      <c r="C26" s="7">
+        <v>17573034</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="6" t="str">
+        <v>2630759</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.176061476582381</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -6062,7 +6055,7 @@
         <v>46081</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="1" t="str">
+      <c r="D27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6071,7 +6064,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="2:5">
+      <c r="B28" s="3">
+        <v>46112</v>
+      </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6081,7 +6077,10 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="2:5">
+      <c r="B29" s="3">
+        <v>46142</v>
+      </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6091,7 +6090,10 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="2:5">
+      <c r="B30" s="3">
+        <v>46173</v>
+      </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6101,7 +6103,10 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="2:5">
+      <c r="B31" s="3">
+        <v>46203</v>
+      </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6111,7 +6116,10 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="2:5">
+      <c r="B32" s="3">
+        <v>46234</v>
+      </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6121,7 +6129,10 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="2:5">
+      <c r="B33" s="3">
+        <v>46265</v>
+      </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6131,7 +6142,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="2:5">
+      <c r="B34" s="3">
+        <v>46295</v>
+      </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6141,7 +6155,10 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="2:5">
+      <c r="B35" s="3">
+        <v>46326</v>
+      </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6151,7 +6168,10 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="2:5">
+      <c r="B36" s="3">
+        <v>46356</v>
+      </c>
       <c r="D36" s="1" t="str">
         <f t="shared" ref="D36:D67" si="2">IF(C36="","",C36-C35)</f>
         <v/>
@@ -6161,7 +6181,10 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="2:5">
+      <c r="B37" s="3">
+        <v>46387</v>
+      </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
